--- a/data/trans_orig/P78C_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>234410</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>220376</v>
+        <v>219570</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>248710</v>
+        <v>247238</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7733558764922559</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7270542782261471</v>
+        <v>0.7243942649833088</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8205336198669146</v>
+        <v>0.8156778258667953</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>396</v>
@@ -762,19 +762,19 @@
         <v>233618</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>225348</v>
+        <v>224037</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>241180</v>
+        <v>241019</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8731442153358556</v>
+        <v>0.8731442153358555</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8422372150090108</v>
+        <v>0.8373352394931199</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9014085144982068</v>
+        <v>0.9008068823102198</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>639</v>
@@ -783,19 +783,19 @@
         <v>468028</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>449647</v>
+        <v>449003</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>483087</v>
+        <v>481903</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8201418845699588</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7879316187116423</v>
+        <v>0.7868045542180978</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8465303277719564</v>
+        <v>0.8444564480743008</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>5580</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2393</v>
+        <v>2420</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12021</v>
+        <v>10900</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01840937234594615</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007895977469013707</v>
+        <v>0.007982906282274667</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03965806285514486</v>
+        <v>0.03596045852175205</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3133</v>
+        <v>3332</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002091830315409376</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01170854418580565</v>
+        <v>0.01245509312862271</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -854,19 +854,19 @@
         <v>6140</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2723</v>
+        <v>2891</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11758</v>
+        <v>12026</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01075885263496572</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004770843204653751</v>
+        <v>0.005065165107488332</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02060392448972882</v>
+        <v>0.02107366318758515</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3774</v>
+        <v>3098</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002211279269834726</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01245057517982781</v>
+        <v>0.01021943385377902</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3389</v>
+        <v>3412</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001174515545942147</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.005938464547041063</v>
+        <v>0.005978570621169266</v>
       </c>
     </row>
     <row r="7">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4283</v>
+        <v>4147</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002768305415993062</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01412896634999718</v>
+        <v>0.01368074671455892</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3533</v>
+        <v>4305</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001470378613571822</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.006191708186860439</v>
+        <v>0.007544270733583241</v>
       </c>
     </row>
     <row r="8">
@@ -1009,19 +1009,19 @@
         <v>15202</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9167</v>
+        <v>8436</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23756</v>
+        <v>24344</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05015384602937936</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0302423032448674</v>
+        <v>0.02783287762008317</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07837391740638605</v>
+        <v>0.08031583464350915</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -1030,19 +1030,19 @@
         <v>4395</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1969</v>
+        <v>2001</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7871</v>
+        <v>8085</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01642502272787019</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007359919268196059</v>
+        <v>0.007479494246077786</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02941881952378916</v>
+        <v>0.0302165979012272</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -1051,19 +1051,19 @@
         <v>19597</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12629</v>
+        <v>13037</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28569</v>
+        <v>29082</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.0343400042746918</v>
+        <v>0.03434000427469179</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02213021675895178</v>
+        <v>0.02284577516575175</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05006230287831603</v>
+        <v>0.05096224999196283</v>
       </c>
     </row>
     <row r="9">
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5085</v>
+        <v>3702</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002875061472060191</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01677538211511</v>
+        <v>0.01221231221159581</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2356</v>
+        <v>2096</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001909080550285238</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.008806752383856456</v>
+        <v>0.007833264072748173</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4548</v>
+        <v>5161</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002422158941235381</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007968782060758253</v>
+        <v>0.009042966502213238</v>
       </c>
     </row>
     <row r="10">
@@ -1151,19 +1151,19 @@
         <v>45535</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34086</v>
+        <v>34315</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57945</v>
+        <v>58425</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1502262589745306</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1124542873189292</v>
+        <v>0.1132091230016384</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1911692401621599</v>
+        <v>0.1927515485066382</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -1172,19 +1172,19 @@
         <v>28476</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21339</v>
+        <v>21796</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36320</v>
+        <v>37435</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1064298510705798</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07975447962918722</v>
+        <v>0.08146130715192353</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1357451607637777</v>
+        <v>0.1399120392584458</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>104</v>
@@ -1193,19 +1193,19 @@
         <v>74011</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60780</v>
+        <v>61689</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>89848</v>
+        <v>90787</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1296922054196342</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.106507510886979</v>
+        <v>0.1081004062539871</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1574442237956972</v>
+        <v>0.1590887501556005</v>
       </c>
     </row>
     <row r="11">
@@ -1297,19 +1297,19 @@
         <v>410909</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>395356</v>
+        <v>392146</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>428769</v>
+        <v>426348</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8557262158224409</v>
+        <v>0.855726215822441</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8233352415140928</v>
+        <v>0.816650136499707</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8929199574605412</v>
+        <v>0.8878765030187139</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>448</v>
@@ -1318,19 +1318,19 @@
         <v>345125</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>336070</v>
+        <v>334577</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>353349</v>
+        <v>352603</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9210786916065009</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8969129832655404</v>
+        <v>0.8929290795871747</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9430296828160064</v>
+        <v>0.9410369665922588</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>754</v>
@@ -1339,19 +1339,19 @@
         <v>756034</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>734428</v>
+        <v>734961</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>773709</v>
+        <v>773669</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8843702357491907</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8590971478234504</v>
+        <v>0.8597206008723302</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9050451790581352</v>
+        <v>0.9049992728933501</v>
       </c>
     </row>
     <row r="13">
@@ -1368,19 +1368,19 @@
         <v>20906</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12407</v>
+        <v>13278</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31240</v>
+        <v>33048</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04353627111911009</v>
+        <v>0.04353627111911011</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02583877304773642</v>
+        <v>0.02765215748411014</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0650578662412401</v>
+        <v>0.06882335865977386</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1389,19 +1389,19 @@
         <v>2493</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7364</v>
+        <v>6879</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006654004922331475</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001781745717021183</v>
+        <v>0.001815396844923656</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01965311786992695</v>
+        <v>0.01835935650888906</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -1410,19 +1410,19 @@
         <v>23399</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14947</v>
+        <v>15119</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36536</v>
+        <v>34944</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02737075703246719</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01748452396249523</v>
+        <v>0.01768509364238497</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04273829255284707</v>
+        <v>0.04087560264068878</v>
       </c>
     </row>
     <row r="14">
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3681</v>
+        <v>3483</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001823162776592876</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009824734653400004</v>
+        <v>0.009295778106919277</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3665</v>
+        <v>4157</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0007990930760602046</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004287230472464331</v>
+        <v>0.00486310803653483</v>
       </c>
     </row>
     <row r="15">
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3363</v>
+        <v>3822</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.001588694552772133</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.008976324811470413</v>
+        <v>0.01020127299317944</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>2970</v>
+        <v>3995</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0006963255466784168</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.003474723208660271</v>
+        <v>0.004673572839943841</v>
       </c>
     </row>
     <row r="16">
@@ -1565,19 +1565,19 @@
         <v>7047</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2632</v>
+        <v>2431</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15156</v>
+        <v>13880</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01467653720558455</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005481152229747018</v>
+        <v>0.005063068261574604</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03156316152032181</v>
+        <v>0.0289054326608658</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1586,19 +1586,19 @@
         <v>4382</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1458</v>
+        <v>1486</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9457</v>
+        <v>9683</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01169580675025999</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003890560644325732</v>
+        <v>0.00396661337326111</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0252397963627609</v>
+        <v>0.02584134486440568</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1607,19 +1607,19 @@
         <v>11430</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5707</v>
+        <v>6073</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19403</v>
+        <v>20308</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01337008168826487</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00667624406561197</v>
+        <v>0.007104042736395524</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02269710517694258</v>
+        <v>0.0237555994088879</v>
       </c>
     </row>
     <row r="17">
@@ -1636,19 +1636,19 @@
         <v>6995</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2595</v>
+        <v>2861</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15433</v>
+        <v>15143</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01456694385045333</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.005404140931748224</v>
+        <v>0.005957929101997704</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03213903328735039</v>
+        <v>0.03153558408019046</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4743</v>
+        <v>4309</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.001928168349819564</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01265865285679183</v>
+        <v>0.01149873286442104</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -1678,19 +1678,19 @@
         <v>7717</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3419</v>
+        <v>3069</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15246</v>
+        <v>15524</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.009027362787203549</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003999723552177825</v>
+        <v>0.003590220613771456</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01783387409530549</v>
+        <v>0.01815961613852401</v>
       </c>
     </row>
     <row r="18">
@@ -1707,19 +1707,19 @@
         <v>34331</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22795</v>
+        <v>22928</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>47992</v>
+        <v>49161</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07149403200241106</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04746999916541058</v>
+        <v>0.04774744278936301</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09994491340957304</v>
+        <v>0.1023787586705005</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>29</v>
@@ -1728,19 +1728,19 @@
         <v>20695</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>13532</v>
+        <v>14179</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28682</v>
+        <v>30365</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05523147104172303</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03611438193061007</v>
+        <v>0.03784245268061368</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0765482921003445</v>
+        <v>0.08103793283185214</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>57</v>
@@ -1749,19 +1749,19 @@
         <v>55026</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>41973</v>
+        <v>42197</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>72626</v>
+        <v>74469</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06436614412013519</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04909831336043365</v>
+        <v>0.04935944432315473</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08495414227969088</v>
+        <v>0.08710956172965285</v>
       </c>
     </row>
     <row r="19">
@@ -1853,19 +1853,19 @@
         <v>220200</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>207189</v>
+        <v>206348</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>232384</v>
+        <v>232815</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7720800495801042</v>
+        <v>0.7720800495801041</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7264573999191405</v>
+        <v>0.7235102501548532</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.814800473907803</v>
+        <v>0.8163116376814576</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>376</v>
@@ -1874,19 +1874,19 @@
         <v>245997</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>235232</v>
+        <v>234867</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>254529</v>
+        <v>254989</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8547867028907505</v>
+        <v>0.8547867028907503</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8173821161352107</v>
+        <v>0.8161142681729905</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8844368802006559</v>
+        <v>0.8860348994934276</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>634</v>
@@ -1895,19 +1895,19 @@
         <v>466197</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>449573</v>
+        <v>448917</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>481076</v>
+        <v>482541</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8136197359810496</v>
+        <v>0.8136197359810498</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7846074114333567</v>
+        <v>0.7834632439137332</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8395872929790239</v>
+        <v>0.8421449738395824</v>
       </c>
     </row>
     <row r="21">
@@ -1924,19 +1924,19 @@
         <v>14726</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>9246</v>
+        <v>9340</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>22051</v>
+        <v>22949</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05163166202051427</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03241853142210426</v>
+        <v>0.03274838402508339</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07731787872447053</v>
+        <v>0.0804647810157485</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -1945,19 +1945,19 @@
         <v>4870</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2068</v>
+        <v>1871</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9871</v>
+        <v>9243</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01692262072068109</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.007185021570502113</v>
+        <v>0.006500547380515196</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03429919707240704</v>
+        <v>0.03211806506529472</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>28</v>
@@ -1966,19 +1966,19 @@
         <v>19596</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13424</v>
+        <v>13139</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>28537</v>
+        <v>28320</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03419893281241627</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.023428717993984</v>
+        <v>0.02293067996795356</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04980395577622915</v>
+        <v>0.04942529246252214</v>
       </c>
     </row>
     <row r="22">
@@ -1995,19 +1995,19 @@
         <v>2072</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5777</v>
+        <v>5902</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007263759737341811</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002107512262963576</v>
+        <v>0.002079500224689523</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02025639058347673</v>
+        <v>0.02069447768152907</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2417</v>
+        <v>2296</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001571795521201639</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.008397475817914925</v>
+        <v>0.007979289438580105</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -2037,19 +2037,19 @@
         <v>2524</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>699</v>
+        <v>770</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6168</v>
+        <v>6417</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004404952143522379</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00121905661657372</v>
+        <v>0.001343441861324757</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01076412323051742</v>
+        <v>0.01119976023573884</v>
       </c>
     </row>
     <row r="23">
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6314</v>
+        <v>6164</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.006279905895170738</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02213747494323308</v>
+        <v>0.02161241179832989</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3108</v>
+        <v>3440</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.002128915995516791</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01080017894496486</v>
+        <v>0.01195447868352007</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -2108,19 +2108,19 @@
         <v>2404</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6743</v>
+        <v>6800</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.004195057678214514</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00107837726323996</v>
+        <v>0.001070395966403909</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01176766449925081</v>
+        <v>0.01186684484374445</v>
       </c>
     </row>
     <row r="24">
@@ -2137,19 +2137,19 @@
         <v>10464</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5448</v>
+        <v>5522</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18286</v>
+        <v>19345</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03668879851073775</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01910341063700857</v>
+        <v>0.01936191946773132</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06411617670534182</v>
+        <v>0.06782884812731491</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>11</v>
@@ -2158,19 +2158,19 @@
         <v>6530</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3418</v>
+        <v>3374</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11457</v>
+        <v>11305</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02269182596068657</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0118775947245089</v>
+        <v>0.01172324541088038</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03981127911583903</v>
+        <v>0.03928407306097554</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>22</v>
@@ -2179,19 +2179,19 @@
         <v>16994</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11103</v>
+        <v>10558</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>25592</v>
+        <v>25249</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02965877339162287</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01937783553054682</v>
+        <v>0.01842594623956009</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04466352606918553</v>
+        <v>0.04406504708843711</v>
       </c>
     </row>
     <row r="25">
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4752</v>
+        <v>5511</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005338751707686331</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01666182403529922</v>
+        <v>0.01932190598900506</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5694</v>
+        <v>5246</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.00265734624835969</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009938006068156093</v>
+        <v>0.009154777690500814</v>
       </c>
     </row>
     <row r="26">
@@ -2271,19 +2271,19 @@
         <v>34429</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>25943</v>
+        <v>24931</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>44914</v>
+        <v>45650</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1207170725484449</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09096127849910544</v>
+        <v>0.08741310098675827</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.157480744340506</v>
+        <v>0.1600617200112264</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>46</v>
@@ -2292,19 +2292,19 @@
         <v>29325</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>22150</v>
+        <v>21853</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>38623</v>
+        <v>39233</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1018981389111634</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07696555912029809</v>
+        <v>0.07593474834932261</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.134208419071562</v>
+        <v>0.1363282321034766</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>89</v>
@@ -2313,19 +2313,19 @@
         <v>63754</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>51186</v>
+        <v>51443</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>77760</v>
+        <v>76459</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1112652017448145</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08933126917040499</v>
+        <v>0.08977921412233708</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1357089345521258</v>
+        <v>0.1334376986427343</v>
       </c>
     </row>
     <row r="27">
@@ -2417,19 +2417,19 @@
         <v>237763</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>212918</v>
+        <v>214457</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>257506</v>
+        <v>259813</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6786301966938478</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6077175815502126</v>
+        <v>0.6121107629810765</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.73498046443839</v>
+        <v>0.7415659869878993</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>318</v>
@@ -2438,19 +2438,19 @@
         <v>243490</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>228919</v>
+        <v>228850</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>255307</v>
+        <v>254754</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.7783765265188759</v>
+        <v>0.778376526518876</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7317960397720022</v>
+        <v>0.7315766300379201</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8161507285486261</v>
+        <v>0.8143854130065925</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>507</v>
@@ -2459,19 +2459,19 @@
         <v>481253</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>454344</v>
+        <v>454891</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>505167</v>
+        <v>505464</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7256803105959625</v>
+        <v>0.7256803105959624</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6851048302856456</v>
+        <v>0.6859297731003792</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7617407701329205</v>
+        <v>0.7621884885863885</v>
       </c>
     </row>
     <row r="29">
@@ -2488,19 +2488,19 @@
         <v>26203</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>16012</v>
+        <v>14900</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>42641</v>
+        <v>42710</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0747880703286915</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04570217178679647</v>
+        <v>0.04252883712312748</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.121706480142752</v>
+        <v>0.1219033087980972</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>17</v>
@@ -2509,19 +2509,19 @@
         <v>11376</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6359</v>
+        <v>6621</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>18053</v>
+        <v>18009</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0363671221718218</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02032675839680689</v>
+        <v>0.02116703570483272</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05771131897331855</v>
+        <v>0.05757123012210424</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>36</v>
@@ -2530,19 +2530,19 @@
         <v>37579</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>25410</v>
+        <v>25417</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>54823</v>
+        <v>55470</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0566649976283827</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03831599534415246</v>
+        <v>0.03832581873104778</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08266728279279076</v>
+        <v>0.08364266792475668</v>
       </c>
     </row>
     <row r="30">
@@ -2559,19 +2559,19 @@
         <v>2384</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7242</v>
+        <v>7474</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.006805176242005325</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.001625028696648223</v>
+        <v>0.001663717304179685</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02066925949748188</v>
+        <v>0.02133147819962078</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2246</v>
+        <v>2509</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.001378738820787392</v>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.007178535938252391</v>
+        <v>0.008021019780388267</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4</v>
@@ -2601,19 +2601,19 @@
         <v>2816</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>838</v>
+        <v>616</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7960</v>
+        <v>7364</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.004245538216236698</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.001263414614877583</v>
+        <v>0.0009283000226823291</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0120035981834377</v>
+        <v>0.01110457448653518</v>
       </c>
     </row>
     <row r="31">
@@ -2630,19 +2630,19 @@
         <v>9512</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3838</v>
+        <v>3589</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>23524</v>
+        <v>24745</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02714960290129935</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01095489548491799</v>
+        <v>0.01024314749990633</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0671425807840987</v>
+        <v>0.07062848166720395</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -2651,19 +2651,19 @@
         <v>2015</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5717</v>
+        <v>5494</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.006441616013998275</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.001995789925604448</v>
+        <v>0.002002798663015927</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01827670418577479</v>
+        <v>0.01756242280677763</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -2672,19 +2672,19 @@
         <v>11527</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>5087</v>
+        <v>5745</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>25822</v>
+        <v>28040</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01738169321038519</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.007670283320471912</v>
+        <v>0.008662620950493489</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.03893744991024332</v>
+        <v>0.04228078015281558</v>
       </c>
     </row>
     <row r="32">
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>14589</v>
+        <v>13840</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01081095122113355</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04163995338518228</v>
+        <v>0.03950237600987509</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -2722,19 +2722,19 @@
         <v>4413</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1481</v>
+        <v>1200</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11968</v>
+        <v>11853</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01410759429781676</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004735434126035262</v>
+        <v>0.003834915970089196</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03825854677220313</v>
+        <v>0.03789193014774392</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -2743,19 +2743,19 @@
         <v>8201</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3132</v>
+        <v>2854</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>21009</v>
+        <v>19603</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01236597016292968</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004722886945936234</v>
+        <v>0.004303694004874048</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03167947447804034</v>
+        <v>0.02955889207641166</v>
       </c>
     </row>
     <row r="33">
@@ -2772,19 +2772,19 @@
         <v>9422</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>4069</v>
+        <v>4173</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>21037</v>
+        <v>22179</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02689257177239376</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01161521893347129</v>
+        <v>0.01190965113773688</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06004324416670478</v>
+        <v>0.0633033069647265</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>7</v>
@@ -2793,19 +2793,19 @@
         <v>5170</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2402</v>
+        <v>1882</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>10546</v>
+        <v>10440</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01652630153360532</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.007679811111066863</v>
+        <v>0.006017334311970613</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.03371321221672882</v>
+        <v>0.03337335422218838</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>14</v>
@@ -2814,19 +2814,19 @@
         <v>14592</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>7906</v>
+        <v>7813</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>25452</v>
+        <v>26435</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02200282599096334</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01192155706642756</v>
+        <v>0.0117818302932699</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03837865150912775</v>
+        <v>0.0398608285376775</v>
       </c>
     </row>
     <row r="34">
@@ -2843,19 +2843,19 @@
         <v>61286</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>46583</v>
+        <v>46099</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>80983</v>
+        <v>78662</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1749234308406287</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1329590188604027</v>
+        <v>0.1315773085550771</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2311442150951021</v>
+        <v>0.2245189802298919</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>78</v>
@@ -2864,19 +2864,19 @@
         <v>45922</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>37034</v>
+        <v>35612</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>59645</v>
+        <v>59168</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1468021006430945</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1183898844180552</v>
+        <v>0.1138434102446851</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1906694883930968</v>
+        <v>0.1891446533196286</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>134</v>
@@ -2885,19 +2885,19 @@
         <v>107208</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>88241</v>
+        <v>87877</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>131488</v>
+        <v>130159</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1616586641951399</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.133058095258391</v>
+        <v>0.1325095597368083</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.198270610950728</v>
+        <v>0.1962660795740143</v>
       </c>
     </row>
     <row r="35">
@@ -2989,19 +2989,19 @@
         <v>143272</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>133464</v>
+        <v>134138</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>151961</v>
+        <v>152030</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.7961673149093307</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7416623305893928</v>
+        <v>0.7454116264397387</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.844452154993286</v>
+        <v>0.8448337114879493</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>322</v>
@@ -3010,19 +3010,19 @@
         <v>147680</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>140466</v>
+        <v>140446</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>153029</v>
+        <v>152785</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.875896979832561</v>
+        <v>0.8758969798325608</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8331110969948402</v>
+        <v>0.8329936623509469</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.9076262132413616</v>
+        <v>0.906178854370175</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>520</v>
@@ -3031,19 +3031,19 @@
         <v>290952</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>279798</v>
+        <v>279924</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>301645</v>
+        <v>301156</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.834734222157106</v>
+        <v>0.8347342221571061</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8027342945347379</v>
+        <v>0.8030976294052897</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8654118745576079</v>
+        <v>0.8640096865496777</v>
       </c>
     </row>
     <row r="37">
@@ -3060,19 +3060,19 @@
         <v>8557</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>4634</v>
+        <v>4668</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>14050</v>
+        <v>14491</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04755049166600466</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02574857397213617</v>
+        <v>0.02593793694106496</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07807384502936426</v>
+        <v>0.0805255777168344</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>7</v>
@@ -3081,19 +3081,19 @@
         <v>2963</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1228</v>
+        <v>1278</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>5734</v>
+        <v>5770</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01757249544242314</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.007283688284799616</v>
+        <v>0.007577827288855821</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03400825807584769</v>
+        <v>0.03421931920302946</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>20</v>
@@ -3102,19 +3102,19 @@
         <v>11520</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>7347</v>
+        <v>7096</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>17624</v>
+        <v>17775</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03304950761016718</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02107966010448958</v>
+        <v>0.02035811030992347</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05056245510950223</v>
+        <v>0.05099591807383266</v>
       </c>
     </row>
     <row r="38">
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3680</v>
+        <v>3720</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.004124715399970593</v>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02045116593360923</v>
+        <v>0.02067028272399968</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>0</v>
@@ -3168,16 +3168,16 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>3974</v>
+        <v>4180</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.002129504252309203</v>
+        <v>0.002129504252309204</v>
       </c>
       <c r="V38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01140042315909745</v>
+        <v>0.01199143878695368</v>
       </c>
     </row>
     <row r="39">
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>4789</v>
+        <v>4402</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.007151213156874976</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02840383153070995</v>
+        <v>0.02610939355012274</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>3963</v>
+        <v>4300</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.003459191441426838</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01136923464783744</v>
+        <v>0.01233620200952406</v>
       </c>
     </row>
     <row r="40">
@@ -3257,19 +3257,19 @@
         <v>10135</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5703</v>
+        <v>5874</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>15592</v>
+        <v>16191</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.05631902720916207</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03169040479574049</v>
+        <v>0.03264290050046045</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.08664644919163594</v>
+        <v>0.0899725196069055</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>15</v>
@@ -3278,19 +3278,19 @@
         <v>7879</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>4274</v>
+        <v>4479</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>14899</v>
+        <v>13971</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.04673034539264322</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02534860730653284</v>
+        <v>0.02656437010897091</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08836395738053478</v>
+        <v>0.08286530094940905</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>30</v>
@@ -3299,19 +3299,19 @@
         <v>18014</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>11771</v>
+        <v>12229</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>26773</v>
+        <v>26417</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.05168078117360944</v>
+        <v>0.05168078117360946</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03376979870560039</v>
+        <v>0.03508476556377563</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.07681080439351226</v>
+        <v>0.07579076115768746</v>
       </c>
     </row>
     <row r="41">
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4398</v>
+        <v>5086</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.007993232374043297</v>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02444258718954507</v>
+        <v>0.02826171747850997</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>2371</v>
+        <v>2622</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.002614778332881062</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01406097676254675</v>
+        <v>0.0155527490318246</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3</v>
@@ -3370,19 +3370,19 @@
         <v>1879</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>5468</v>
+        <v>5446</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.005391561611452537</v>
+        <v>0.005391561611452538</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.001238881484687296</v>
+        <v>0.001261404339540008</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01568621812616357</v>
+        <v>0.01562315632320732</v>
       </c>
     </row>
     <row r="42">
@@ -3399,19 +3399,19 @@
         <v>15808</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>10079</v>
+        <v>10385</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>22864</v>
+        <v>22745</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.08784521844148876</v>
+        <v>0.08784521844148878</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05601116083889312</v>
+        <v>0.05770758733697886</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1270556187120365</v>
+        <v>0.1263970189729503</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>20</v>
@@ -3420,7 +3420,7 @@
         <v>8436</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>5317</v>
+        <v>5162</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>12783</v>
@@ -3429,10 +3429,10 @@
         <v>0.05003418784261656</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03153329440442135</v>
+        <v>0.03061457164420645</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.07581755931476251</v>
+        <v>0.07581484013904663</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>44</v>
@@ -3441,19 +3441,19 @@
         <v>24244</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>17875</v>
+        <v>17669</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>31958</v>
+        <v>31488</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.06955523175392879</v>
+        <v>0.0695552317539288</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.05128196216832913</v>
+        <v>0.05069275716149856</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.09168652021601741</v>
+        <v>0.09033757978549729</v>
       </c>
     </row>
     <row r="43">
@@ -3545,19 +3545,19 @@
         <v>176176</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>162574</v>
+        <v>163003</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>187636</v>
+        <v>188297</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.6934363119507196</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6398983197797309</v>
+        <v>0.6415878736701388</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7385459216411689</v>
+        <v>0.7411459481878224</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>308</v>
@@ -3566,19 +3566,19 @@
         <v>168731</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>159112</v>
+        <v>160189</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>175852</v>
+        <v>176732</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8237427938638162</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7767825822502705</v>
+        <v>0.7820391019520173</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8585044087270122</v>
+        <v>0.8628015305523166</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>548</v>
@@ -3587,19 +3587,19 @@
         <v>344907</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>329677</v>
+        <v>328740</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>360213</v>
+        <v>359673</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.7516004938491071</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7184118836560143</v>
+        <v>0.7163699474170838</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7849531150879224</v>
+        <v>0.7837778005831849</v>
       </c>
     </row>
     <row r="45">
@@ -3616,19 +3616,19 @@
         <v>7382</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>3786</v>
+        <v>3770</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>13000</v>
+        <v>13608</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.02905429472174679</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.01490304616308616</v>
+        <v>0.01483868033113369</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.05116700774720452</v>
+        <v>0.05356062889329064</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>3</v>
@@ -3637,19 +3637,19 @@
         <v>1751</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>4886</v>
+        <v>4747</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.008547088687723321</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.002525765864541964</v>
+        <v>0.002503301293312748</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.02385472496754746</v>
+        <v>0.02317516617985948</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>14</v>
@@ -3658,19 +3658,19 @@
         <v>9132</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>4983</v>
+        <v>5064</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>14744</v>
+        <v>15233</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.0199006068584973</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.01085927987094869</v>
+        <v>0.01103427482891005</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.03212955604389699</v>
+        <v>0.03319451741939324</v>
       </c>
     </row>
     <row r="46">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>5900</v>
+        <v>5622</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.005730256401404769</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02322249920792522</v>
+        <v>0.02212700543645175</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>2971</v>
+        <v>3524</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.002886726059220587</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01450528014226861</v>
+        <v>0.01720303758624331</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3</v>
@@ -3776,19 +3776,19 @@
         <v>2047</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>5769</v>
+        <v>5506</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.004461005527402299</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.001286644287453902</v>
+        <v>0.001272383257420147</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01257052551540941</v>
+        <v>0.01199881619053866</v>
       </c>
     </row>
     <row r="48">
@@ -3805,19 +3805,19 @@
         <v>31725</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>22991</v>
+        <v>23709</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>41125</v>
+        <v>41823</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.1248707933845573</v>
+        <v>0.1248707933845574</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.09049501192364356</v>
+        <v>0.09331916182985388</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.161869426928645</v>
+        <v>0.1646172119968623</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>17</v>
@@ -3826,19 +3826,19 @@
         <v>9047</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>5145</v>
+        <v>5090</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>13816</v>
+        <v>14063</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.04416620087268813</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.02511606474857899</v>
+        <v>0.02485021751551796</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.06744832345844924</v>
+        <v>0.06865608635680176</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>63</v>
@@ -3847,19 +3847,19 @@
         <v>40772</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>31084</v>
+        <v>31719</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>52096</v>
+        <v>52857</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.08884713185998189</v>
+        <v>0.0888471318599819</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.06773566209566065</v>
+        <v>0.06911971469007319</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.113523648580271</v>
+        <v>0.1151837916099688</v>
       </c>
     </row>
     <row r="49">
@@ -3876,19 +3876,19 @@
         <v>1604</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>4810</v>
+        <v>4805</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.006313159258123671</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.00138380818858343</v>
+        <v>0.001368644213596547</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.01893346465505908</v>
+        <v>0.01891259674808786</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1513</v>
+        <v>1576</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.001448023138583438</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.007385885648242714</v>
+        <v>0.007693662323038298</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>4</v>
@@ -3918,19 +3918,19 @@
         <v>1901</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>5032</v>
+        <v>5373</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.004141535421282809</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.001007434667868238</v>
+        <v>0.00103511843070264</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.010965128757766</v>
+        <v>0.01170894182376817</v>
       </c>
     </row>
     <row r="50">
@@ -3947,19 +3947,19 @@
         <v>35720</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>27506</v>
+        <v>27158</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>46417</v>
+        <v>46182</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1405951842834477</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1082655571282807</v>
+        <v>0.1068933555943656</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1827014248744376</v>
+        <v>0.1817747946243937</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>43</v>
@@ -3968,19 +3968,19 @@
         <v>24418</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>18137</v>
+        <v>17765</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>32781</v>
+        <v>32937</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1192091673779684</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.08854433143756561</v>
+        <v>0.08673023006768835</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1600364259725376</v>
+        <v>0.1608000660418354</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>98</v>
@@ -3989,19 +3989,19 @@
         <v>60138</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>48377</v>
+        <v>49117</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>73861</v>
+        <v>72334</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1310492264837285</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1054191369819157</v>
+        <v>0.1070329958606457</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1609530374327962</v>
+        <v>0.1576268593637112</v>
       </c>
     </row>
     <row r="51">
@@ -4093,19 +4093,19 @@
         <v>464171</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>440182</v>
+        <v>439256</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>486156</v>
+        <v>487345</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.714678101607681</v>
+        <v>0.7146781016076809</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.6777417424612079</v>
+        <v>0.6763159000035092</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.7485280217036812</v>
+        <v>0.7503581670074693</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>620</v>
@@ -4114,19 +4114,19 @@
         <v>482220</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>463572</v>
+        <v>465050</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>502405</v>
+        <v>501787</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.7725552206412736</v>
+        <v>0.7725552206412734</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.7426800871375933</v>
+        <v>0.7450475077658034</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.8048939990692812</v>
+        <v>0.8039032912697297</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>1011</v>
@@ -4135,19 +4135,19 @@
         <v>946391</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>915808</v>
+        <v>912160</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>974105</v>
+        <v>976788</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.7430419384061827</v>
+        <v>0.7430419384061828</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.7190305415990392</v>
+        <v>0.7161659167758269</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.7648011479049188</v>
+        <v>0.7669079186273851</v>
       </c>
     </row>
     <row r="53">
@@ -4164,19 +4164,19 @@
         <v>62591</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>48110</v>
+        <v>48241</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>78859</v>
+        <v>80980</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.09637034965496724</v>
+        <v>0.09637034965496723</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.07407472949044139</v>
+        <v>0.07427591936806185</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1214182769800001</v>
+        <v>0.1246839670571323</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>39</v>
@@ -4185,19 +4185,19 @@
         <v>30055</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>21320</v>
+        <v>21850</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>40985</v>
+        <v>41579</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>0.04814988091798399</v>
+        <v>0.04814988091798398</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.03415677202436619</v>
+        <v>0.0350049224967325</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.06566118086688576</v>
+        <v>0.06661309707298925</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>100</v>
@@ -4206,19 +4206,19 @@
         <v>92645</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>75793</v>
+        <v>75496</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>113531</v>
+        <v>111612</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.07273894697908059</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.05950715943551109</v>
+        <v>0.05927394979410722</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.08913669546742553</v>
+        <v>0.08763003445324047</v>
       </c>
     </row>
     <row r="54">
@@ -4235,19 +4235,19 @@
         <v>7370</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>2827</v>
+        <v>3183</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>13900</v>
+        <v>13806</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.01134693021415934</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.004353212876631633</v>
+        <v>0.004901573956945648</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.02140092306801473</v>
+        <v>0.02125762336792658</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>6</v>
@@ -4256,19 +4256,19 @@
         <v>4430</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>1757</v>
+        <v>1980</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>9831</v>
+        <v>9884</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.007096783789772137</v>
+        <v>0.007096783789772135</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.002814659349392495</v>
+        <v>0.003172399270793008</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.01574976299866181</v>
+        <v>0.0158357427645111</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>13</v>
@@ -4277,19 +4277,19 @@
         <v>11799</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>6130</v>
+        <v>6562</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>19835</v>
+        <v>19853</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.009264061170849052</v>
+        <v>0.009264061170849054</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.004812968277618857</v>
+        <v>0.005152419608234687</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.01557295908476778</v>
+        <v>0.01558690094782409</v>
       </c>
     </row>
     <row r="55">
@@ -4306,19 +4306,19 @@
         <v>12991</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>7805</v>
+        <v>7262</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>21130</v>
+        <v>20690</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.02000171654453436</v>
+        <v>0.02000171654453435</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.01201754111893593</v>
+        <v>0.01118096573586958</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.03253416113204847</v>
+        <v>0.0318564389734627</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>13</v>
@@ -4327,19 +4327,19 @@
         <v>10130</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>5679</v>
+        <v>5696</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>18855</v>
+        <v>18753</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.01622930090477597</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.00909826400974797</v>
+        <v>0.009126061343024062</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.03020645441649204</v>
+        <v>0.03004343552274663</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>27</v>
@@ -4348,19 +4348,19 @@
         <v>23121</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>15748</v>
+        <v>15515</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>33648</v>
+        <v>34809</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.01815296900269285</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.01236432480896219</v>
+        <v>0.01218108042896725</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.0264177402802118</v>
+        <v>0.02732963578076843</v>
       </c>
     </row>
     <row r="56">
@@ -4377,19 +4377,19 @@
         <v>20746</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>13259</v>
+        <v>13256</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>31127</v>
+        <v>30850</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.03194162324300016</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.02041463131998096</v>
+        <v>0.02041034588134405</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.04792517097331964</v>
+        <v>0.04749930635262588</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>25</v>
@@ -4398,19 +4398,19 @@
         <v>17694</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>11402</v>
+        <v>12007</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>25541</v>
+        <v>25660</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.02834729203229845</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.01826689843777133</v>
+        <v>0.01923666997134959</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.04091900687584564</v>
+        <v>0.04110892247123921</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>46</v>
@@ -4419,19 +4419,19 @@
         <v>38440</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>28244</v>
+        <v>28433</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>50826</v>
+        <v>50576</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.03018014952830244</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.02217492914688254</v>
+        <v>0.02232397780845097</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.03990497707136347</v>
+        <v>0.03970865446275244</v>
       </c>
     </row>
     <row r="57">
@@ -4448,19 +4448,19 @@
         <v>11954</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>6624</v>
+        <v>6671</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>19846</v>
+        <v>20740</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.01840529798234725</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.01019870821463962</v>
+        <v>0.01027151691665195</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.03055589458267476</v>
+        <v>0.03193302169144442</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>11</v>
@@ -4469,19 +4469,19 @@
         <v>8253</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>4427</v>
+        <v>4187</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>14607</v>
+        <v>14180</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.0132212874951758</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.007091922387909713</v>
+        <v>0.006707146474154135</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.02340212461063128</v>
+        <v>0.0227172220704295</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>23</v>
@@ -4490,19 +4490,19 @@
         <v>20206</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>13367</v>
+        <v>12542</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>29929</v>
+        <v>29595</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.01586477022500484</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.01049454410135773</v>
+        <v>0.009847070907532748</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.02349814300444172</v>
+        <v>0.02323595239527024</v>
       </c>
     </row>
     <row r="58">
@@ -4519,19 +4519,19 @@
         <v>69661</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>54622</v>
+        <v>53286</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>87227</v>
+        <v>86465</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.1072559807533107</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.08410049010870305</v>
+        <v>0.08204326459967498</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.1343017667013919</v>
+        <v>0.1331287169781495</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>95</v>
@@ -4540,19 +4540,19 @@
         <v>71407</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>58332</v>
+        <v>58238</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>87318</v>
+        <v>85194</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.1144002342187202</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.09345182107024423</v>
+        <v>0.09330245203293856</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.139890764589352</v>
+        <v>0.136487350417521</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>157</v>
@@ -4561,19 +4561,19 @@
         <v>141068</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>121717</v>
+        <v>120259</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>161684</v>
+        <v>163391</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.1107571646878875</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.09556401596002109</v>
+        <v>0.09441899825461403</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.1269430170133945</v>
+        <v>0.1282838616673476</v>
       </c>
     </row>
     <row r="59">
@@ -4665,19 +4665,19 @@
         <v>427281</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>401515</v>
+        <v>401633</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>453970</v>
+        <v>452763</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.591437399962684</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.5557720894723861</v>
+        <v>0.5559363237262468</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.6283796969536914</v>
+        <v>0.6267095440084053</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>493</v>
@@ -4686,19 +4686,19 @@
         <v>383414</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>365709</v>
+        <v>362512</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>403497</v>
+        <v>400534</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.6914586565040183</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.6595289913663469</v>
+        <v>0.6537635077684716</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.7276769467135865</v>
+        <v>0.7223329000631146</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>914</v>
@@ -4707,19 +4707,19 @@
         <v>810695</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>778121</v>
+        <v>776245</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>843517</v>
+        <v>844651</v>
       </c>
       <c r="U60" s="6" t="n">
-        <v>0.6348705858333676</v>
+        <v>0.6348705858333675</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.6093613464702837</v>
+        <v>0.6078920270598671</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.6605745762234903</v>
+        <v>0.6614619687916965</v>
       </c>
     </row>
     <row r="61">
@@ -4736,19 +4736,19 @@
         <v>122661</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>103071</v>
+        <v>102847</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>142430</v>
+        <v>143988</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.1697854085541143</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.1426692368550058</v>
+        <v>0.1423602144793905</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.1971497184570283</v>
+        <v>0.1993070197724884</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>74</v>
@@ -4757,19 +4757,19 @@
         <v>55261</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>43359</v>
+        <v>44652</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>67886</v>
+        <v>68544</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.09965938365180171</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.07819468495643069</v>
+        <v>0.08052607268374858</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.1224277417688039</v>
+        <v>0.1236135029564868</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>202</v>
@@ -4778,19 +4778,19 @@
         <v>177922</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>154693</v>
+        <v>154323</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>201843</v>
+        <v>199948</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.1393339147489386</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.1211430977894302</v>
+        <v>0.1208535283015039</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.1580674011686619</v>
+        <v>0.1565833396579993</v>
       </c>
     </row>
     <row r="62">
@@ -4807,19 +4807,19 @@
         <v>3531</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>1124</v>
+        <v>1133</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>10358</v>
+        <v>9448</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.004887798120186131</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.001555572893151984</v>
+        <v>0.001567830560224128</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.01433719801994566</v>
+        <v>0.01307835206866272</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>2</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>4954</v>
+        <v>4959</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.002568553329921049</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.0089338588759939</v>
+        <v>0.008943375104779544</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>5</v>
@@ -4849,19 +4849,19 @@
         <v>4955</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>1542</v>
+        <v>1891</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>11266</v>
+        <v>11799</v>
       </c>
       <c r="U62" s="6" t="n">
-        <v>0.003880690295925095</v>
+        <v>0.003880690295925094</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.00120790549359844</v>
+        <v>0.001480803471408882</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.008822791832191213</v>
+        <v>0.009240177556544849</v>
       </c>
     </row>
     <row r="63">
@@ -4878,19 +4878,19 @@
         <v>7738</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>3667</v>
+        <v>3199</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>15623</v>
+        <v>14611</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.01071123125296192</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.00507646873789572</v>
+        <v>0.00442756010030627</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.02162547067772288</v>
+        <v>0.02022387243129364</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>7</v>
@@ -4899,19 +4899,19 @@
         <v>5353</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>2331</v>
+        <v>2260</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>9894</v>
+        <v>10600</v>
       </c>
       <c r="N63" s="6" t="n">
-        <v>0.009653384282983053</v>
+        <v>0.009653384282983055</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.004203456224983075</v>
+        <v>0.004075740372019776</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.01784330751797014</v>
+        <v>0.01911592165088338</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>15</v>
@@ -4920,19 +4920,19 @@
         <v>13091</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>7541</v>
+        <v>7526</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>22101</v>
+        <v>21192</v>
       </c>
       <c r="U63" s="6" t="n">
-        <v>0.01025187225609865</v>
+        <v>0.01025187225609864</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.005905370987671314</v>
+        <v>0.005894062923395694</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.01730801142285287</v>
+        <v>0.0165955995462461</v>
       </c>
     </row>
     <row r="64">
@@ -4949,19 +4949,19 @@
         <v>26861</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>18282</v>
+        <v>17822</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>37784</v>
+        <v>38281</v>
       </c>
       <c r="G64" s="6" t="n">
-        <v>0.03718083362642682</v>
+        <v>0.03718083362642683</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.02530562376315538</v>
+        <v>0.02466938105693428</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.05230060119836821</v>
+        <v>0.05298866592211823</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>18</v>
@@ -4970,19 +4970,19 @@
         <v>14648</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>8824</v>
+        <v>8880</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>23267</v>
+        <v>22642</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.02641739137191251</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.0159126940157472</v>
+        <v>0.01601368135611786</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.04196069482174063</v>
+        <v>0.04083321655135997</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>45</v>
@@ -4991,19 +4991,19 @@
         <v>41510</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>30253</v>
+        <v>30055</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>54632</v>
+        <v>54715</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.03250692125805443</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.02369208943392641</v>
+        <v>0.02353669292298832</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.0427833258901234</v>
+        <v>0.04284857363549174</v>
       </c>
     </row>
     <row r="65">
@@ -5020,19 +5020,19 @@
         <v>14083</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>7469</v>
+        <v>7812</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>23166</v>
+        <v>23794</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.01949395298830509</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.01033788657115672</v>
+        <v>0.01081315887143948</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.03206566388284759</v>
+        <v>0.03293581429545772</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>2</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>4553</v>
+        <v>4550</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.002447224701044092</v>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.008211622828570634</v>
+        <v>0.008206420130050025</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>16</v>
@@ -5062,19 +5062,19 @@
         <v>15440</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>9398</v>
+        <v>9319</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>25059</v>
+        <v>24902</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.01209158929292723</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.007359371420506538</v>
+        <v>0.007298271852952358</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.01962426486269538</v>
+        <v>0.01950087930234963</v>
       </c>
     </row>
     <row r="66">
@@ -5091,19 +5091,19 @@
         <v>120290</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>101811</v>
+        <v>100929</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>143477</v>
+        <v>142515</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.1665033754953219</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.1409249803169844</v>
+        <v>0.1397048709784348</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.1985988122131964</v>
+        <v>0.1972677050306977</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>126</v>
@@ -5112,19 +5112,19 @@
         <v>93043</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>77894</v>
+        <v>78246</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>108418</v>
+        <v>108765</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.1677954061583193</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.1404762061683477</v>
+        <v>0.1411113242313918</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.1955238534384676</v>
+        <v>0.1961489166151608</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>247</v>
@@ -5133,19 +5133,19 @@
         <v>213332</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>188808</v>
+        <v>189874</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>238661</v>
+        <v>241527</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.1670644263146884</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.1478587886183601</v>
+        <v>0.1486937467594409</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.1868996881429904</v>
+        <v>0.1891447059554363</v>
       </c>
     </row>
     <row r="67">
@@ -5237,19 +5237,19 @@
         <v>2314184</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>2256853</v>
+        <v>2262840</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>2364090</v>
+        <v>2366022</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.7176208610896762</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.6998427947338329</v>
+        <v>0.7016994848518091</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.7330965743662716</v>
+        <v>0.7336958311979033</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>3281</v>
@@ -5258,19 +5258,19 @@
         <v>2250273</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>2214645</v>
+        <v>2215195</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>2284437</v>
+        <v>2283011</v>
       </c>
       <c r="N68" s="6" t="n">
         <v>0.8051104929079588</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.7923631683145403</v>
+        <v>0.7925600728766523</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.8173337443817238</v>
+        <v>0.8168236161797865</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>5527</v>
@@ -5279,19 +5279,19 @@
         <v>4564456</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>4499668</v>
+        <v>4503131</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>4629488</v>
+        <v>4627483</v>
       </c>
       <c r="U68" s="6" t="n">
-        <v>0.7582422944223027</v>
+        <v>0.758242294422303</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.74747970305706</v>
+        <v>0.7480549349642585</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.7690453285900304</v>
+        <v>0.7687121686695927</v>
       </c>
     </row>
     <row r="69">
@@ -5308,19 +5308,19 @@
         <v>268604</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>238198</v>
+        <v>235190</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>302744</v>
+        <v>299286</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>0.08329312742411768</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>0.07386429591707068</v>
+        <v>0.07293159567659019</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.09387984135206863</v>
+        <v>0.09280771339045794</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>151</v>
@@ -5329,19 +5329,19 @@
         <v>109329</v>
       </c>
       <c r="L69" s="5" t="n">
-        <v>92421</v>
+        <v>92303</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>127658</v>
+        <v>128614</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.03911595007657569</v>
       </c>
       <c r="O69" s="6" t="n">
-        <v>0.03306660034138054</v>
+        <v>0.03302442164330543</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.04567391028678183</v>
+        <v>0.04601601847795388</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>430</v>
@@ -5350,19 +5350,19 @@
         <v>377932</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>343624</v>
+        <v>343651</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>412601</v>
+        <v>415339</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.06278166535539974</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.05708241563449917</v>
+        <v>0.05708695632373269</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.06854084781431108</v>
+        <v>0.06899566660994078</v>
       </c>
     </row>
     <row r="70">
@@ -5379,19 +5379,19 @@
         <v>16769</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>9546</v>
+        <v>10098</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>26361</v>
+        <v>26150</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.005200078172776479</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.002960157212391151</v>
+        <v>0.003131262792704296</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.008174482335060034</v>
+        <v>0.00810907235047807</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>11</v>
@@ -5400,19 +5400,19 @@
         <v>7421</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>3792</v>
+        <v>3661</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>12465</v>
+        <v>13373</v>
       </c>
       <c r="N70" s="6" t="n">
-        <v>0.002655024278984765</v>
+        <v>0.002655024278984764</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.001356840658428163</v>
+        <v>0.001310014703180534</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.004459857514024661</v>
+        <v>0.004784742497230309</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>29</v>
@@ -5421,19 +5421,19 @@
         <v>24190</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>16598</v>
+        <v>15975</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>35693</v>
+        <v>34935</v>
       </c>
       <c r="U70" s="6" t="n">
-        <v>0.004018409729030691</v>
+        <v>0.00401840972903069</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.002757297559156299</v>
+        <v>0.002653804984342997</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.005929220632254809</v>
+        <v>0.005803326152916987</v>
       </c>
     </row>
     <row r="71">
@@ -5450,19 +5450,19 @@
         <v>34327</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>23485</v>
+        <v>24001</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>51135</v>
+        <v>52064</v>
       </c>
       <c r="G71" s="6" t="n">
         <v>0.01064472023854447</v>
       </c>
       <c r="H71" s="6" t="n">
-        <v>0.007282552975499097</v>
+        <v>0.007442486391185791</v>
       </c>
       <c r="I71" s="6" t="n">
-        <v>0.01585686047357746</v>
+        <v>0.01614502003219634</v>
       </c>
       <c r="J71" s="5" t="n">
         <v>28</v>
@@ -5471,19 +5471,19 @@
         <v>20503</v>
       </c>
       <c r="L71" s="5" t="n">
-        <v>14234</v>
+        <v>13565</v>
       </c>
       <c r="M71" s="5" t="n">
-        <v>29658</v>
+        <v>30306</v>
       </c>
       <c r="N71" s="6" t="n">
-        <v>0.007335622544440906</v>
+        <v>0.007335622544440905</v>
       </c>
       <c r="O71" s="6" t="n">
-        <v>0.005092742087888747</v>
+        <v>0.004853264524164093</v>
       </c>
       <c r="P71" s="6" t="n">
-        <v>0.01061116394596827</v>
+        <v>0.01084297849032034</v>
       </c>
       <c r="Q71" s="5" t="n">
         <v>62</v>
@@ -5492,19 +5492,19 @@
         <v>54830</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>42032</v>
+        <v>41893</v>
       </c>
       <c r="T71" s="5" t="n">
-        <v>72730</v>
+        <v>72552</v>
       </c>
       <c r="U71" s="6" t="n">
         <v>0.009108306282072806</v>
       </c>
       <c r="V71" s="6" t="n">
-        <v>0.006982316737795998</v>
+        <v>0.006959231486891228</v>
       </c>
       <c r="W71" s="6" t="n">
-        <v>0.01208181062547851</v>
+        <v>0.01205220918340513</v>
       </c>
     </row>
     <row r="72">
@@ -5521,19 +5521,19 @@
         <v>125967</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>106134</v>
+        <v>106218</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>148489</v>
+        <v>150241</v>
       </c>
       <c r="G72" s="6" t="n">
         <v>0.03906206401802832</v>
       </c>
       <c r="H72" s="6" t="n">
-        <v>0.03291167198672488</v>
+        <v>0.03293779902286609</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.04604600153127991</v>
+        <v>0.04658933769335846</v>
       </c>
       <c r="J72" s="5" t="n">
         <v>105</v>
@@ -5542,19 +5542,19 @@
         <v>68989</v>
       </c>
       <c r="L72" s="5" t="n">
-        <v>56362</v>
+        <v>55969</v>
       </c>
       <c r="M72" s="5" t="n">
-        <v>85350</v>
+        <v>84042</v>
       </c>
       <c r="N72" s="6" t="n">
         <v>0.02468303360370264</v>
       </c>
       <c r="O72" s="6" t="n">
-        <v>0.02016549178634659</v>
+        <v>0.02002469434113313</v>
       </c>
       <c r="P72" s="6" t="n">
-        <v>0.03053686878211039</v>
+        <v>0.03006877455038793</v>
       </c>
       <c r="Q72" s="5" t="n">
         <v>250</v>
@@ -5563,19 +5563,19 @@
         <v>194956</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>171902</v>
+        <v>169970</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>224113</v>
+        <v>223291</v>
       </c>
       <c r="U72" s="6" t="n">
         <v>0.03238588064379123</v>
       </c>
       <c r="V72" s="6" t="n">
-        <v>0.02855615817612575</v>
+        <v>0.02823529013897921</v>
       </c>
       <c r="W72" s="6" t="n">
-        <v>0.03722940840128638</v>
+        <v>0.03709291050042655</v>
       </c>
     </row>
     <row r="73">
@@ -5592,19 +5592,19 @@
         <v>47891</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>35035</v>
+        <v>34376</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>63580</v>
+        <v>63801</v>
       </c>
       <c r="G73" s="6" t="n">
         <v>0.01485069791524513</v>
       </c>
       <c r="H73" s="6" t="n">
-        <v>0.01086433890585336</v>
+        <v>0.01065989295738049</v>
       </c>
       <c r="I73" s="6" t="n">
-        <v>0.0197160972123806</v>
+        <v>0.01978435469964892</v>
       </c>
       <c r="J73" s="5" t="n">
         <v>24</v>
@@ -5613,19 +5613,19 @@
         <v>16750</v>
       </c>
       <c r="L73" s="5" t="n">
-        <v>11141</v>
+        <v>10926</v>
       </c>
       <c r="M73" s="5" t="n">
-        <v>24744</v>
+        <v>24676</v>
       </c>
       <c r="N73" s="6" t="n">
         <v>0.005992878254664327</v>
       </c>
       <c r="O73" s="6" t="n">
-        <v>0.003986038842068879</v>
+        <v>0.003908997130905031</v>
       </c>
       <c r="P73" s="6" t="n">
-        <v>0.008853138173342661</v>
+        <v>0.008828697111979722</v>
       </c>
       <c r="Q73" s="5" t="n">
         <v>71</v>
@@ -5634,19 +5634,19 @@
         <v>64641</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>50000</v>
+        <v>50616</v>
       </c>
       <c r="T73" s="5" t="n">
-        <v>83702</v>
+        <v>83213</v>
       </c>
       <c r="U73" s="6" t="n">
         <v>0.01073801252228269</v>
       </c>
       <c r="V73" s="6" t="n">
-        <v>0.008306008264043768</v>
+        <v>0.008408214023652287</v>
       </c>
       <c r="W73" s="6" t="n">
-        <v>0.01390455702553547</v>
+        <v>0.01382320859487618</v>
       </c>
     </row>
     <row r="74">
@@ -5663,19 +5663,19 @@
         <v>417058</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>379477</v>
+        <v>375861</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>457480</v>
+        <v>454884</v>
       </c>
       <c r="G74" s="6" t="n">
         <v>0.1293284511416118</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.1176745527918994</v>
+        <v>0.1165532338542331</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.1418629827299697</v>
+        <v>0.1410580920160648</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>489</v>
@@ -5684,19 +5684,19 @@
         <v>321723</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>296133</v>
+        <v>296111</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>351516</v>
+        <v>351950</v>
       </c>
       <c r="N74" s="6" t="n">
         <v>0.115106998333673</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.1059514622333572</v>
+        <v>0.1059436701294789</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.1257667129031422</v>
+        <v>0.1259220434943706</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>930</v>
@@ -5705,19 +5705,19 @@
         <v>738781</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>693040</v>
+        <v>687954</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>786055</v>
+        <v>785280</v>
       </c>
       <c r="U74" s="6" t="n">
         <v>0.1227254310451201</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.1151270871258453</v>
+        <v>0.1142821647521476</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.1305785832581871</v>
+        <v>0.1304498473204544</v>
       </c>
     </row>
     <row r="75">
